--- a/onlymusic.xlsx
+++ b/onlymusic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -46,6 +46,9 @@
     <t>rhythm</t>
   </si>
   <si>
+    <t>이준영</t>
+  </si>
+  <si>
     <t>이지환</t>
   </si>
   <si>
@@ -53,6 +56,12 @@
   </si>
   <si>
     <t>정지영</t>
+  </si>
+  <si>
+    <t>오동익</t>
+  </si>
+  <si>
+    <t>박서전</t>
   </si>
 </sst>
 </file>
@@ -104,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -115,17 +124,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -432,7 +438,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -440,24 +446,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="15.75">
@@ -491,172 +489,198 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="1">
         <v>45029.53662037037</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5">
-        <v>2</v>
-      </c>
-      <c r="I2" s="5">
-        <v>2</v>
-      </c>
-      <c r="J2" s="5">
-        <v>3</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="1">
         <v>45029.5390162037</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>5</v>
-      </c>
-      <c r="F3" s="5">
-        <v>5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5">
-        <v>3</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="1">
         <v>45029.64740740741</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="5">
-        <v>5</v>
-      </c>
-      <c r="D4" s="5">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="4">
         <v>6</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>6</v>
       </c>
-      <c r="J4" s="5">
-        <v>5</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="J4" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
       <c r="A5" s="1">
         <v>45030.64005787037</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="5">
-        <v>4</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+      <c r="A6" s="1">
+        <v>45033.555868055555</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
+      <c r="A7" s="1">
+        <v>45033.56130787037</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/onlymusic.xlsx
+++ b/onlymusic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -22,6 +22,9 @@
     <t>본인의 이름 (ex. 이정하)</t>
   </si>
   <si>
+    <t>condition</t>
+  </si>
+  <si>
     <t>stimulated</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>이준영</t>
   </si>
   <si>
+    <t>music</t>
+  </si>
+  <si>
     <t>이지환</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
   </si>
   <si>
     <t>박서전</t>
+  </si>
+  <si>
+    <t>김호영</t>
   </si>
 </sst>
 </file>
@@ -113,13 +122,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -438,7 +450,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A2" ySplit="1" xSplit="0"/>
@@ -446,16 +458,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="15.75">
@@ -468,26 +481,29 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
@@ -495,30 +511,33 @@
         <v>45029.53662037037</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="5">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2</v>
+      </c>
+      <c r="K2" s="5">
         <v>3</v>
       </c>
     </row>
@@ -527,30 +546,33 @@
         <v>45029.5390162037</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>5</v>
-      </c>
-      <c r="F3" s="4">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5">
         <v>3</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="5">
         <v>3</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="5">
         <v>3</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="5">
         <v>4</v>
       </c>
     </row>
@@ -559,30 +581,33 @@
         <v>45029.64740740741</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
         <v>6</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="5">
         <v>6</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="5">
         <v>5</v>
       </c>
     </row>
@@ -591,30 +616,33 @@
         <v>45030.64005787037</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5">
+        <v>5</v>
+      </c>
+      <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4</v>
-      </c>
-      <c r="I5" s="4">
-        <v>4</v>
-      </c>
-      <c r="J5" s="4">
+      <c r="F5" s="5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="5">
         <v>4</v>
       </c>
     </row>
@@ -623,30 +651,33 @@
         <v>45033.555868055555</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
         <v>6</v>
       </c>
-      <c r="D6" s="4">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
         <v>6</v>
       </c>
-      <c r="G6" s="4">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4">
-        <v>5</v>
-      </c>
-      <c r="I6" s="4">
-        <v>5</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="H6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5">
         <v>6</v>
       </c>
     </row>
@@ -655,31 +686,69 @@
         <v>45033.56130787037</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="4">
-        <v>4</v>
-      </c>
-      <c r="J7" s="4">
-        <v>5</v>
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18">
+      <c r="A8" s="1">
+        <v>45033.620300925926</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>5</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
